--- a/Data/Saldos migratorios y tasas de migración interna y externa, por municipios.xlsx
+++ b/Data/Saldos migratorios y tasas de migración interna y externa, por municipios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school Data Sciencs\1er Ano\1er Semestre\ICD\La-Migracion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBC29D2-C7E2-43EA-9CB0-B711F6CCEACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6CFAD-E9D3-4EB5-BECC-56C70C3539A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,350 +1145,353 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3">
+        <v>457</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>96</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1941</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>931</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
-        <v>1063</v>
+        <v>1703</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>960</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>1047</v>
+        <v>1941</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3">
-        <v>286</v>
+        <v>63</v>
+      </c>
+      <c r="B5" s="4">
+        <v>863</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3">
-        <v>311</v>
+        <v>884</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>439</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3">
-        <v>457</v>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3">
-        <v>707</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3">
-        <v>782</v>
+        <v>1645</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1645</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3">
-        <v>1703</v>
+        <v>311</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>707</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3">
+        <v>782</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>596</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4">
-        <v>61</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>636</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
         <v>45</v>
       </c>
-      <c r="B12" s="3">
-        <v>596</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4">
-        <v>40</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3">
-        <v>636</v>
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>931</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1063</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>960</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1047</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4">
-        <v>863</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3">
-        <v>884</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>